--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -30,8 +30,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,28 +79,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -163,95 +147,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="151452416"/>
-        <c:axId val="151451840"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="151452416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151451840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="151451840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151452416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Лист1!$J$2</c:f>
@@ -308,47 +207,33 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="95059968"/>
-        <c:axId val="84491584"/>
+        <c:dLbls/>
+        <c:axId val="59003648"/>
+        <c:axId val="56276096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95059968"/>
+        <c:axId val="59003648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84491584"/>
+        <c:crossAx val="56276096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84491584"/>
+        <c:axId val="56276096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95059968"/>
+        <c:crossAx val="59003648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -356,34 +241,149 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tmatrix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$I$3:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$J$3:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="56177792"/>
+        <c:axId val="56179328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="56177792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56179328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="56179328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56177792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -404,16 +404,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -510,7 +510,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -545,7 +544,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -721,14 +719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.140625" customWidth="1"/>
@@ -737,7 +735,7 @@
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:10">
       <c r="F2" t="s">
         <v>0</v>
       </c>
@@ -751,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="6:10">
       <c r="F3">
         <v>10</v>
       </c>
@@ -765,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:10">
       <c r="F4">
         <v>100</v>
       </c>
@@ -779,7 +777,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:10">
       <c r="F5">
         <v>250</v>
       </c>
@@ -793,7 +791,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="6" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:10">
       <c r="F6">
         <v>500</v>
       </c>
@@ -807,7 +805,7 @@
         <v>2.851</v>
       </c>
     </row>
-    <row r="7" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:10">
       <c r="F7">
         <v>750</v>
       </c>
@@ -825,24 +823,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
